--- a/ProjektLagerverwaltungssystem/resources/Protokolldatei_Lager.xlsx
+++ b/ProjektLagerverwaltungssystem/resources/Protokolldatei_Lager.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>2025-06-25 11:02:50</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>2025-06-30 13:33:07</t>
+  </si>
+  <si>
+    <t>2025-09-03 07:32:44</t>
+  </si>
+  <si>
+    <t>2025-09-03 07:33:19</t>
+  </si>
+  <si>
+    <t>2025-09-03 07:33:48</t>
+  </si>
+  <si>
+    <t>2025-09-03 07:34:05</t>
+  </si>
+  <si>
+    <t>2025-09-03 07:34:15</t>
   </si>
 </sst>
 </file>
@@ -433,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,6 +751,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B28" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B29" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B30" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B31" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B32" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProjektLagerverwaltungssystem/resources/Protokolldatei_Lager.xlsx
+++ b/ProjektLagerverwaltungssystem/resources/Protokolldatei_Lager.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>2025-06-25 11:02:50</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>2025-09-03 07:34:15</t>
+  </si>
+  <si>
+    <t>2025-09-03 22:15:11</t>
+  </si>
+  <si>
+    <t>2025-09-03 22:15:32</t>
+  </si>
+  <si>
+    <t>2025-09-03 22:15:58</t>
   </si>
 </sst>
 </file>
@@ -448,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -806,6 +815,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B33" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B34" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B35" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
